--- a/26 Nov Event.xlsx
+++ b/26 Nov Event.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9aa0632464068393/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Project\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{6BD7717D-6346-456A-840C-8D197014B8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBEAFE7B-0E6B-4BE7-A55F-D5E09E6C9A3F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9010644A-5AC6-4CE7-9E06-8BBB24D10AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7752" yWindow="828" windowWidth="12132" windowHeight="9420" firstSheet="1" activeTab="3" xr2:uid="{83C212A1-F36E-4623-8008-17FD8928DF9E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="3" xr2:uid="{83C212A1-F36E-4623-8008-17FD8928DF9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Anchoring" sheetId="2" r:id="rId1"/>
@@ -1686,10 +1686,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C36F755-E45E-4F53-9CD0-BC747B368BCF}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2055,6 +2055,11 @@
       </c>
       <c r="G19" t="s">
         <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
